--- a/Compiled Data.xlsx
+++ b/Compiled Data.xlsx
@@ -8,40 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hugo/Desktop/Research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26C82EFA-0AC9-EB4B-B127-57A28384B82F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B63750B-A92B-D540-B375-0268973D474B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{47A79DBE-A558-9546-BC6D-161B922C2AB5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Bills" sheetId="1" r:id="rId1"/>
+    <sheet name="Cosponsors" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$38</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$39</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$B$41:$AH$41</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$B$42:$AH$42</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$B$43:$AH$43</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$A$38</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$A$39</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$A$40</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$A$41</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$A$42</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$A$43</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$B$37:$AH$37</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$40</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$B$38:$AH$38</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$B$39:$AH$39</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$B$40:$AH$40</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$B$41:$AH$41</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$B$42:$AH$42</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$B$43:$AH$43</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$41</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$A$42</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$A$43</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$B$37:$AH$37</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$B$38:$AH$38</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$B$39:$AH$39</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$B$40:$AH$40</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Cosponsors!$A$2:$A$7</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Cosponsors!$B$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Cosponsors!$B$2:$B$7</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Cosponsors!$C$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Cosponsors!$C$2:$C$7</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Cosponsors!$D$1</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Cosponsors!$D$2:$D$7</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Cosponsors!$E$1</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Cosponsors!$E$2:$E$7</definedName>
+    <definedName name="_xlchart.v2.10" hidden="1">Cosponsors!$B$1</definedName>
+    <definedName name="_xlchart.v2.11" hidden="1">Cosponsors!$B$2:$B$7</definedName>
+    <definedName name="_xlchart.v2.12" hidden="1">Cosponsors!$C$1</definedName>
+    <definedName name="_xlchart.v2.13" hidden="1">Cosponsors!$C$2:$C$7</definedName>
+    <definedName name="_xlchart.v2.14" hidden="1">Cosponsors!$D$1</definedName>
+    <definedName name="_xlchart.v2.15" hidden="1">Cosponsors!$D$2:$D$7</definedName>
+    <definedName name="_xlchart.v2.16" hidden="1">Cosponsors!$E$1</definedName>
+    <definedName name="_xlchart.v2.17" hidden="1">Cosponsors!$E$2:$E$7</definedName>
+    <definedName name="_xlchart.v2.9" hidden="1">Cosponsors!$A$2:$A$7</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -64,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="44">
   <si>
     <t>Congress</t>
   </si>
@@ -188,6 +181,15 @@
   <si>
     <t>116th Congress</t>
   </si>
+  <si>
+    <t>Democrat</t>
+  </si>
+  <si>
+    <t>Republican</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
 </sst>
 </file>
 
@@ -238,6 +240,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFDB0903"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -277,14 +284,14 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Atkinson Hyperlegible" pitchFamily="2" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Makeup of Bills by Policy Area by Congress</a:t>
+              <a:t>Makeup of Bills Introduced to the 111th-116th Congresses by Policy Area</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -309,7 +316,7 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Atkinson Hyperlegible" pitchFamily="2" charset="0"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -330,7 +337,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$37</c:f>
+              <c:f>Bills!$B$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -351,7 +358,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$38:$A$43</c:f>
+              <c:f>Bills!$A$38:$A$43</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -377,7 +384,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$38:$B$43</c:f>
+              <c:f>Bills!$B$38:$B$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -413,7 +420,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$37</c:f>
+              <c:f>Bills!$C$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -434,7 +441,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$38:$A$43</c:f>
+              <c:f>Bills!$A$38:$A$43</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -460,7 +467,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$38:$C$43</c:f>
+              <c:f>Bills!$C$38:$C$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -496,7 +503,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$37</c:f>
+              <c:f>Bills!$D$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -517,7 +524,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$38:$A$43</c:f>
+              <c:f>Bills!$A$38:$A$43</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -543,7 +550,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$38:$D$43</c:f>
+              <c:f>Bills!$D$38:$D$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -579,7 +586,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$37</c:f>
+              <c:f>Bills!$E$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -600,7 +607,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$38:$A$43</c:f>
+              <c:f>Bills!$A$38:$A$43</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -626,7 +633,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$38:$E$43</c:f>
+              <c:f>Bills!$E$38:$E$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -662,7 +669,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$37</c:f>
+              <c:f>Bills!$F$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -683,7 +690,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$38:$A$43</c:f>
+              <c:f>Bills!$A$38:$A$43</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -709,7 +716,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$38:$F$43</c:f>
+              <c:f>Bills!$F$38:$F$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -745,7 +752,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$37</c:f>
+              <c:f>Bills!$G$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -766,7 +773,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$38:$A$43</c:f>
+              <c:f>Bills!$A$38:$A$43</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -792,7 +799,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$38:$G$43</c:f>
+              <c:f>Bills!$G$38:$G$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -828,7 +835,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$37</c:f>
+              <c:f>Bills!$H$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -851,7 +858,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$38:$A$43</c:f>
+              <c:f>Bills!$A$38:$A$43</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -877,7 +884,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$38:$H$43</c:f>
+              <c:f>Bills!$H$38:$H$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -913,7 +920,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$37</c:f>
+              <c:f>Bills!$I$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -936,7 +943,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$38:$A$43</c:f>
+              <c:f>Bills!$A$38:$A$43</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -962,7 +969,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$38:$I$43</c:f>
+              <c:f>Bills!$I$38:$I$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -998,7 +1005,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$37</c:f>
+              <c:f>Bills!$J$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1021,7 +1028,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$38:$A$43</c:f>
+              <c:f>Bills!$A$38:$A$43</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1047,7 +1054,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$38:$J$43</c:f>
+              <c:f>Bills!$J$38:$J$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1083,7 +1090,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$K$37</c:f>
+              <c:f>Bills!$K$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1106,7 +1113,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$38:$A$43</c:f>
+              <c:f>Bills!$A$38:$A$43</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1132,7 +1139,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$38:$K$43</c:f>
+              <c:f>Bills!$K$38:$K$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1168,7 +1175,7 @@
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$37</c:f>
+              <c:f>Bills!$L$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1191,7 +1198,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$38:$A$43</c:f>
+              <c:f>Bills!$A$38:$A$43</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1217,7 +1224,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$38:$L$43</c:f>
+              <c:f>Bills!$L$38:$L$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1253,7 +1260,7 @@
           <c:order val="11"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$37</c:f>
+              <c:f>Bills!$M$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1276,7 +1283,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$38:$A$43</c:f>
+              <c:f>Bills!$A$38:$A$43</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1302,7 +1309,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$38:$M$43</c:f>
+              <c:f>Bills!$M$38:$M$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1338,7 +1345,7 @@
           <c:order val="12"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$37</c:f>
+              <c:f>Bills!$N$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1362,7 +1369,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$38:$A$43</c:f>
+              <c:f>Bills!$A$38:$A$43</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1388,7 +1395,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$38:$N$43</c:f>
+              <c:f>Bills!$N$38:$N$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1424,7 +1431,7 @@
           <c:order val="13"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$O$37</c:f>
+              <c:f>Bills!$O$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1448,7 +1455,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$38:$A$43</c:f>
+              <c:f>Bills!$A$38:$A$43</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1474,7 +1481,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$38:$O$43</c:f>
+              <c:f>Bills!$O$38:$O$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1510,7 +1517,7 @@
           <c:order val="14"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$P$37</c:f>
+              <c:f>Bills!$P$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1534,7 +1541,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$38:$A$43</c:f>
+              <c:f>Bills!$A$38:$A$43</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1560,7 +1567,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$38:$P$43</c:f>
+              <c:f>Bills!$P$38:$P$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1596,7 +1603,7 @@
           <c:order val="15"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Q$37</c:f>
+              <c:f>Bills!$Q$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1620,7 +1627,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$38:$A$43</c:f>
+              <c:f>Bills!$A$38:$A$43</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1646,7 +1653,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$38:$Q$43</c:f>
+              <c:f>Bills!$Q$38:$Q$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1682,7 +1689,7 @@
           <c:order val="16"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$R$37</c:f>
+              <c:f>Bills!$R$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1706,7 +1713,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$38:$A$43</c:f>
+              <c:f>Bills!$A$38:$A$43</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1732,7 +1739,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$R$38:$R$43</c:f>
+              <c:f>Bills!$R$38:$R$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1768,7 +1775,7 @@
           <c:order val="17"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$S$37</c:f>
+              <c:f>Bills!$S$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1792,7 +1799,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$38:$A$43</c:f>
+              <c:f>Bills!$A$38:$A$43</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1818,7 +1825,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$S$38:$S$43</c:f>
+              <c:f>Bills!$S$38:$S$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1854,7 +1861,7 @@
           <c:order val="18"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$T$37</c:f>
+              <c:f>Bills!$T$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1877,7 +1884,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$38:$A$43</c:f>
+              <c:f>Bills!$A$38:$A$43</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1903,7 +1910,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$T$38:$T$43</c:f>
+              <c:f>Bills!$T$38:$T$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1939,7 +1946,7 @@
           <c:order val="19"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$U$37</c:f>
+              <c:f>Bills!$U$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1962,7 +1969,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$38:$A$43</c:f>
+              <c:f>Bills!$A$38:$A$43</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1988,7 +1995,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$U$38:$U$43</c:f>
+              <c:f>Bills!$U$38:$U$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2024,7 +2031,7 @@
           <c:order val="20"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$V$37</c:f>
+              <c:f>Bills!$V$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2047,7 +2054,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$38:$A$43</c:f>
+              <c:f>Bills!$A$38:$A$43</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2073,7 +2080,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$V$38:$V$43</c:f>
+              <c:f>Bills!$V$38:$V$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2109,7 +2116,7 @@
           <c:order val="21"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$W$37</c:f>
+              <c:f>Bills!$W$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2132,7 +2139,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$38:$A$43</c:f>
+              <c:f>Bills!$A$38:$A$43</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2158,7 +2165,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$W$38:$W$43</c:f>
+              <c:f>Bills!$W$38:$W$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2194,7 +2201,7 @@
           <c:order val="22"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$X$37</c:f>
+              <c:f>Bills!$X$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2217,7 +2224,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$38:$A$43</c:f>
+              <c:f>Bills!$A$38:$A$43</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2243,7 +2250,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$X$38:$X$43</c:f>
+              <c:f>Bills!$X$38:$X$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2279,7 +2286,7 @@
           <c:order val="23"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Y$37</c:f>
+              <c:f>Bills!$Y$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2302,7 +2309,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$38:$A$43</c:f>
+              <c:f>Bills!$A$38:$A$43</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2328,7 +2335,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Y$38:$Y$43</c:f>
+              <c:f>Bills!$Y$38:$Y$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2364,7 +2371,7 @@
           <c:order val="24"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Z$37</c:f>
+              <c:f>Bills!$Z$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2388,7 +2395,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$38:$A$43</c:f>
+              <c:f>Bills!$A$38:$A$43</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2414,7 +2421,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Z$38:$Z$43</c:f>
+              <c:f>Bills!$Z$38:$Z$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2450,7 +2457,7 @@
           <c:order val="25"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AA$37</c:f>
+              <c:f>Bills!$AA$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2474,7 +2481,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$38:$A$43</c:f>
+              <c:f>Bills!$A$38:$A$43</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2500,7 +2507,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AA$38:$AA$43</c:f>
+              <c:f>Bills!$AA$38:$AA$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2536,7 +2543,7 @@
           <c:order val="26"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AB$37</c:f>
+              <c:f>Bills!$AB$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2560,7 +2567,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$38:$A$43</c:f>
+              <c:f>Bills!$A$38:$A$43</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2586,7 +2593,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AB$38:$AB$43</c:f>
+              <c:f>Bills!$AB$38:$AB$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2622,7 +2629,7 @@
           <c:order val="27"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AC$37</c:f>
+              <c:f>Bills!$AC$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2646,7 +2653,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$38:$A$43</c:f>
+              <c:f>Bills!$A$38:$A$43</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2672,7 +2679,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AC$38:$AC$43</c:f>
+              <c:f>Bills!$AC$38:$AC$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2708,7 +2715,7 @@
           <c:order val="28"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AD$37</c:f>
+              <c:f>Bills!$AD$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2732,7 +2739,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$38:$A$43</c:f>
+              <c:f>Bills!$A$38:$A$43</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2758,7 +2765,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AD$38:$AD$43</c:f>
+              <c:f>Bills!$AD$38:$AD$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2794,7 +2801,7 @@
           <c:order val="29"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AE$37</c:f>
+              <c:f>Bills!$AE$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2818,7 +2825,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$38:$A$43</c:f>
+              <c:f>Bills!$A$38:$A$43</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2844,7 +2851,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AE$38:$AE$43</c:f>
+              <c:f>Bills!$AE$38:$AE$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2880,7 +2887,7 @@
           <c:order val="30"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AF$37</c:f>
+              <c:f>Bills!$AF$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2903,7 +2910,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$38:$A$43</c:f>
+              <c:f>Bills!$A$38:$A$43</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2929,7 +2936,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AF$38:$AF$43</c:f>
+              <c:f>Bills!$AF$38:$AF$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2965,7 +2972,7 @@
           <c:order val="31"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AG$37</c:f>
+              <c:f>Bills!$AG$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2988,7 +2995,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$38:$A$43</c:f>
+              <c:f>Bills!$A$38:$A$43</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -3014,7 +3021,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AG$38:$AG$43</c:f>
+              <c:f>Bills!$AG$38:$AG$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3050,7 +3057,7 @@
           <c:order val="32"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AH$37</c:f>
+              <c:f>Bills!$AH$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3073,7 +3080,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$38:$A$43</c:f>
+              <c:f>Bills!$A$38:$A$43</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -3099,7 +3106,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AH$38:$AH$43</c:f>
+              <c:f>Bills!$AH$38:$AH$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3179,7 +3186,7 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Atkinson Hyperlegible" pitchFamily="2" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -3198,6 +3205,8 @@
         <c:axId val="475854240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="15000"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="t"/>
@@ -3238,7 +3247,7 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Atkinson Hyperlegible" pitchFamily="2" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -3280,7 +3289,7 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Atkinson Hyperlegible" pitchFamily="2" charset="0"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -3291,6 +3300,548 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr baseline="0">
+          <a:latin typeface="Atkinson Hyperlegible" pitchFamily="2" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Atkinson Hyperlegible" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:latin typeface="Atkinson Hyperlegible" pitchFamily="2" charset="0"/>
+              </a:rPr>
+              <a:t>Average Number of Cosponsors </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0">
+                <a:latin typeface="Atkinson Hyperlegible" pitchFamily="2" charset="0"/>
+              </a:rPr>
+              <a:t>per Bill by Party Across the 111th-116th Congresses</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:latin typeface="Atkinson Hyperlegible" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Atkinson Hyperlegible" pitchFamily="2" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cosponsors!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Democrat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Cosponsors!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>111th Congress</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>112th Congress</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>113th Congress</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>114th Congress</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>115th Congress</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>116th Congress</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cosponsors!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.7098421541318478</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.3807953260459858</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4892656611251791</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.8278391861488803</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.41396530576485</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.0437238493723857</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F73A-CE42-A31A-81A4C382AEB2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cosponsors!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Republican</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="DB0903"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="DB0903"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Cosponsors!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>111th Congress</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>112th Congress</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>113th Congress</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>114th Congress</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>115th Congress</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>116th Congress</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cosponsors!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.7628597957288763</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0104598567659258</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6677309259055377</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.7486060843196709</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5910285614158051</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3864714086471408</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F73A-CE42-A31A-81A4C382AEB2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cosponsors!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Other</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Cosponsors!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>111th Congress</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>112th Congress</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>113th Congress</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>114th Congress</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>115th Congress</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>116th Congress</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cosponsors!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.6239554317548746E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7033546928006034E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6001321149399981E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9029639049202779E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0376730331172244E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.6834030683403071E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F73A-CE42-A31A-81A4C382AEB2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="784476480"/>
+        <c:axId val="478285184"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="784476480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="478285184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="478285184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Atkinson Hyperlegible" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="784476480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Atkinson Hyperlegible" pitchFamily="2" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -3327,6 +3878,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3871,20 +4462,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>357342</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>123043</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>540969</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>89790</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>678995</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>3638</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>205946</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>181034</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3892,6 +4999,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20F86C7B-12E3-C198-2E28-B6E05D21414B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>23962</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>35944</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>11981</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>11981</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{225B70CA-0632-D870-9621-352F1485F7DE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4211,8 +5359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2706863-E199-6D4F-8E4A-F762E846ACD1}">
   <dimension ref="A1:AH43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="133" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="107" zoomScaleNormal="133" workbookViewId="0">
+      <selection activeCell="AL28" sqref="AL28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6230,131 +7378,99 @@
         <v>1213</v>
       </c>
       <c r="C38">
-        <f>B3</f>
         <v>1176</v>
       </c>
       <c r="D38">
-        <f>B4</f>
         <v>1040</v>
       </c>
       <c r="E38">
-        <f>B5</f>
         <v>803</v>
       </c>
       <c r="F38">
-        <f>B6</f>
         <v>693</v>
       </c>
       <c r="G38">
-        <f>B7</f>
         <v>624</v>
       </c>
       <c r="H38">
-        <f>B8</f>
         <v>443</v>
       </c>
       <c r="I38">
-        <f>B9</f>
         <v>439</v>
       </c>
       <c r="J38">
-        <f>B10</f>
         <v>429</v>
       </c>
       <c r="K38">
-        <f>B11</f>
         <v>377</v>
       </c>
       <c r="L38">
-        <f>B12</f>
         <v>367</v>
       </c>
       <c r="M38">
-        <f>B13</f>
         <v>309</v>
       </c>
       <c r="N38">
-        <f>B14</f>
         <v>295</v>
       </c>
       <c r="O38">
-        <f>B15</f>
         <v>235</v>
       </c>
       <c r="P38">
-        <f>B16</f>
         <v>224</v>
       </c>
       <c r="Q38">
-        <f>B17</f>
         <v>206</v>
       </c>
       <c r="R38">
-        <f>B18</f>
         <v>197</v>
       </c>
       <c r="S38">
-        <f>B19</f>
         <v>194</v>
       </c>
       <c r="T38">
-        <f>B20</f>
         <v>182</v>
       </c>
       <c r="U38">
-        <f>B21</f>
         <v>177</v>
       </c>
       <c r="V38">
-        <f>B22</f>
         <v>155</v>
       </c>
       <c r="W38">
-        <f>B23</f>
         <v>154</v>
       </c>
       <c r="X38">
-        <f>B24</f>
         <v>148</v>
       </c>
       <c r="Y38">
-        <f>B25</f>
         <v>139</v>
       </c>
       <c r="Z38">
-        <f>B26</f>
         <v>126</v>
       </c>
       <c r="AA38">
-        <f>B27</f>
         <v>120</v>
       </c>
       <c r="AB38">
-        <f>B28</f>
         <v>119</v>
       </c>
       <c r="AC38">
-        <f>B29</f>
         <v>62</v>
       </c>
       <c r="AD38">
-        <f>B30</f>
         <v>44</v>
       </c>
       <c r="AE38">
-        <f>B31</f>
         <v>44</v>
       </c>
       <c r="AF38">
-        <f>B32</f>
         <v>13</v>
       </c>
       <c r="AG38">
-        <f>B33</f>
         <v>13</v>
       </c>
       <c r="AH38">
-        <f>B34</f>
         <v>9</v>
       </c>
     </row>
@@ -6366,131 +7482,99 @@
         <v>939</v>
       </c>
       <c r="C39">
-        <f>F3</f>
         <v>827</v>
       </c>
       <c r="D39">
-        <f>F4</f>
         <v>2236</v>
       </c>
       <c r="E39">
-        <f>F5</f>
         <v>686</v>
       </c>
       <c r="F39">
-        <f>F6</f>
         <v>670</v>
       </c>
       <c r="G39">
-        <f>F7</f>
         <v>602</v>
       </c>
       <c r="H39">
-        <f>F8</f>
         <v>388</v>
       </c>
       <c r="I39">
-        <f>F9</f>
         <v>298</v>
       </c>
       <c r="J39">
-        <f>F10</f>
         <v>369</v>
       </c>
       <c r="K39">
-        <f>F11</f>
         <v>398</v>
       </c>
       <c r="L39">
-        <f>F12</f>
         <v>280</v>
       </c>
       <c r="M39">
-        <f>F13</f>
         <v>290</v>
       </c>
       <c r="N39">
-        <f>F14</f>
         <v>234</v>
       </c>
       <c r="O39">
-        <f>F15</f>
         <v>238</v>
       </c>
       <c r="P39">
-        <f>F16</f>
         <v>235</v>
       </c>
       <c r="Q39">
-        <f>F17</f>
         <v>202</v>
       </c>
       <c r="R39">
-        <f>F18</f>
         <v>202</v>
       </c>
       <c r="S39">
-        <f>F19</f>
         <v>171</v>
       </c>
       <c r="T39">
-        <f>F20</f>
         <v>145</v>
       </c>
       <c r="U39">
-        <f>F21</f>
         <v>119</v>
       </c>
       <c r="V39">
-        <f>F22</f>
         <v>123</v>
       </c>
       <c r="W39">
-        <f>F23</f>
         <v>169</v>
       </c>
       <c r="X39">
-        <f>F24</f>
         <v>110</v>
       </c>
       <c r="Y39">
-        <f>F25</f>
         <v>135</v>
       </c>
       <c r="Z39">
-        <f>F26</f>
         <v>92</v>
       </c>
       <c r="AA39">
-        <f>F27</f>
         <v>104</v>
       </c>
       <c r="AB39">
-        <f>F28</f>
         <v>83</v>
       </c>
       <c r="AC39">
-        <f>F29</f>
         <v>66</v>
       </c>
       <c r="AD39">
-        <f>F30</f>
         <v>47</v>
       </c>
       <c r="AE39">
-        <f>F31</f>
         <v>49</v>
       </c>
       <c r="AF39">
-        <f>F32</f>
         <v>10</v>
       </c>
       <c r="AG39">
-        <f>F33</f>
         <v>15</v>
       </c>
       <c r="AH39">
-        <f>F34</f>
         <v>14</v>
       </c>
     </row>
@@ -6502,131 +7586,99 @@
         <v>923</v>
       </c>
       <c r="C40">
-        <f>J3</f>
         <v>988</v>
       </c>
       <c r="D40">
-        <f>J4</f>
         <v>114</v>
       </c>
       <c r="E40">
-        <f>J5</f>
         <v>902</v>
       </c>
       <c r="F40">
-        <f>J6</f>
         <v>694</v>
       </c>
       <c r="G40">
-        <f>J7</f>
         <v>647</v>
       </c>
       <c r="H40">
-        <f>J8</f>
         <v>448</v>
       </c>
       <c r="I40">
-        <f>J9</f>
         <v>349</v>
       </c>
       <c r="J40">
-        <f>J10</f>
         <v>496</v>
       </c>
       <c r="K40">
-        <f>J11</f>
         <v>321</v>
       </c>
       <c r="L40">
-        <f>J12</f>
         <v>256</v>
       </c>
       <c r="M40">
-        <f>J13</f>
         <v>360</v>
       </c>
       <c r="N40">
-        <f>J14</f>
         <v>204</v>
       </c>
       <c r="O40">
-        <f>J15</f>
         <v>248</v>
       </c>
       <c r="P40">
-        <f>J16</f>
         <v>266</v>
       </c>
       <c r="Q40">
-        <f>J17</f>
         <v>200</v>
       </c>
       <c r="R40">
-        <f>J18</f>
         <v>264</v>
       </c>
       <c r="S40">
-        <f>J19</f>
         <v>136</v>
       </c>
       <c r="T40">
-        <f>J20</f>
         <v>112</v>
       </c>
       <c r="U40">
-        <f>J21</f>
         <v>159</v>
       </c>
       <c r="V40">
-        <f>J22</f>
         <v>128</v>
       </c>
       <c r="W40">
-        <f>J23</f>
         <v>157</v>
       </c>
       <c r="X40">
-        <f>J24</f>
         <v>83</v>
       </c>
       <c r="Y40">
-        <f>J25</f>
         <v>116</v>
       </c>
       <c r="Z40">
-        <f>J26</f>
         <v>109</v>
       </c>
       <c r="AA40">
-        <f>J27</f>
         <v>134</v>
       </c>
       <c r="AB40">
-        <f>J28</f>
         <v>65</v>
       </c>
       <c r="AC40">
-        <f>J29</f>
         <v>56</v>
       </c>
       <c r="AD40">
-        <f>J30</f>
         <v>48</v>
       </c>
       <c r="AE40">
-        <f>J31</f>
         <v>59</v>
       </c>
       <c r="AF40">
-        <f>J32</f>
         <v>1</v>
       </c>
       <c r="AG40">
-        <f>J33</f>
         <v>18</v>
       </c>
       <c r="AH40">
-        <f>J34</f>
         <v>17</v>
       </c>
     </row>
@@ -6638,131 +7690,99 @@
         <v>1044</v>
       </c>
       <c r="C41">
-        <f>N3</f>
         <v>1219</v>
       </c>
       <c r="D41">
-        <f>N4</f>
         <v>128</v>
       </c>
       <c r="E41">
-        <f>N5</f>
         <v>899</v>
       </c>
       <c r="F41">
-        <f>N6</f>
         <v>715</v>
       </c>
       <c r="G41">
-        <f>N7</f>
         <v>561</v>
       </c>
       <c r="H41">
-        <f>N8</f>
         <v>641</v>
       </c>
       <c r="I41">
-        <f>N9</f>
         <v>451</v>
       </c>
       <c r="J41">
-        <f>N10</f>
         <v>521</v>
       </c>
       <c r="K41">
-        <f>N11</f>
         <v>453</v>
       </c>
       <c r="L41">
-        <f>N12</f>
         <v>334</v>
       </c>
       <c r="M41">
-        <f>N13</f>
         <v>425</v>
       </c>
       <c r="N41">
-        <f>N14</f>
         <v>263</v>
       </c>
       <c r="O41">
-        <f>N15</f>
         <v>326</v>
       </c>
       <c r="P41">
-        <f>N16</f>
         <v>267</v>
       </c>
       <c r="Q41">
-        <f>N17</f>
         <v>291</v>
       </c>
       <c r="R41">
-        <f>N18</f>
         <v>190</v>
       </c>
       <c r="S41">
-        <f>N19</f>
         <v>110</v>
       </c>
       <c r="T41">
-        <f>N20</f>
         <v>139</v>
       </c>
       <c r="U41">
-        <f>N21</f>
         <v>202</v>
       </c>
       <c r="V41">
-        <f>N22</f>
         <v>176</v>
       </c>
       <c r="W41">
-        <f>N23</f>
         <v>140</v>
       </c>
       <c r="X41">
-        <f>N24</f>
         <v>99</v>
       </c>
       <c r="Y41">
-        <f>N25</f>
         <v>114</v>
       </c>
       <c r="Z41">
-        <f>N26</f>
         <v>78</v>
       </c>
       <c r="AA41">
-        <f>N27</f>
         <v>150</v>
       </c>
       <c r="AB41">
-        <f>N28</f>
         <v>42</v>
       </c>
       <c r="AC41">
-        <f>N29</f>
         <v>67</v>
       </c>
       <c r="AD41">
-        <f>N30</f>
         <v>35</v>
       </c>
       <c r="AE41">
-        <f>N31</f>
         <v>89</v>
       </c>
       <c r="AF41">
-        <f>N32</f>
         <v>7</v>
       </c>
       <c r="AG41">
-        <f>N33</f>
         <v>19</v>
       </c>
       <c r="AH41">
-        <f>N34</f>
         <v>16</v>
       </c>
     </row>
@@ -6774,131 +7794,99 @@
         <v>968</v>
       </c>
       <c r="C42">
-        <f>R3</f>
         <v>1311</v>
       </c>
       <c r="D42">
-        <f>R4</f>
         <v>110</v>
       </c>
       <c r="E42">
-        <f>R5</f>
         <v>968</v>
       </c>
       <c r="F42">
-        <f>R6</f>
         <v>914</v>
       </c>
       <c r="G42">
-        <f>R7</f>
         <v>689</v>
       </c>
       <c r="H42">
-        <f>R8</f>
         <v>746</v>
       </c>
       <c r="I42">
-        <f>R9</f>
         <v>544</v>
       </c>
       <c r="J42">
-        <f>R10</f>
         <v>505</v>
       </c>
       <c r="K42">
-        <f>R11</f>
         <v>460</v>
       </c>
       <c r="L42">
-        <f>R12</f>
         <v>304</v>
       </c>
       <c r="M42">
-        <f>R13</f>
         <v>514</v>
       </c>
       <c r="N42">
-        <f>R14</f>
         <v>277</v>
       </c>
       <c r="O42">
-        <f>R15</f>
         <v>325</v>
       </c>
       <c r="P42">
-        <f>R16</f>
         <v>308</v>
       </c>
       <c r="Q42">
-        <f>R17</f>
         <v>369</v>
       </c>
       <c r="R42">
-        <f>R18</f>
         <v>157</v>
       </c>
       <c r="S42">
-        <f>R19</f>
         <v>133</v>
       </c>
       <c r="T42">
-        <f>R20</f>
         <v>191</v>
       </c>
       <c r="U42">
-        <f>R21</f>
         <v>331</v>
       </c>
       <c r="V42">
-        <f>R22</f>
         <v>164</v>
       </c>
       <c r="W42">
-        <f>R23</f>
         <v>293</v>
       </c>
       <c r="X42">
-        <f>R24</f>
         <v>106</v>
       </c>
       <c r="Y42">
-        <f>R25</f>
         <v>156</v>
       </c>
       <c r="Z42">
-        <f>R26</f>
         <v>88</v>
       </c>
       <c r="AA42">
-        <f>R27</f>
         <v>158</v>
       </c>
       <c r="AB42">
-        <f>R28</f>
         <v>69</v>
       </c>
       <c r="AC42">
-        <f>R29</f>
         <v>79</v>
       </c>
       <c r="AD42">
-        <f>R30</f>
         <v>45</v>
       </c>
       <c r="AE42">
-        <f>R31</f>
         <v>81</v>
       </c>
       <c r="AF42">
-        <f>R32</f>
         <v>3</v>
       </c>
       <c r="AG42">
-        <f>R33</f>
         <v>29</v>
       </c>
       <c r="AH42">
-        <f>R34</f>
         <v>13</v>
       </c>
     </row>
@@ -6910,132 +7898,229 @@
         <v>1149</v>
       </c>
       <c r="C43">
-        <f>V3</f>
         <v>1843</v>
       </c>
       <c r="D43">
-        <f>V4</f>
         <v>133</v>
       </c>
       <c r="E43">
-        <f>V5</f>
         <v>1216</v>
       </c>
       <c r="F43">
-        <f>V6</f>
         <v>1146</v>
       </c>
       <c r="G43">
-        <f>V7</f>
         <v>624</v>
       </c>
       <c r="H43">
-        <f>V8</f>
         <v>813</v>
       </c>
       <c r="I43">
-        <f>V9</f>
         <v>597</v>
       </c>
       <c r="J43">
-        <f>V10</f>
         <v>694</v>
       </c>
       <c r="K43">
-        <f>V11</f>
         <v>636</v>
       </c>
       <c r="L43">
-        <f>V12</f>
         <v>353</v>
       </c>
       <c r="M43">
-        <f>V13</f>
         <v>696</v>
       </c>
       <c r="N43">
-        <f>V14</f>
         <v>560</v>
       </c>
       <c r="O43">
-        <f>V15</f>
         <v>388</v>
       </c>
       <c r="P43">
-        <f>V16</f>
         <v>414</v>
       </c>
       <c r="Q43">
-        <f>V17</f>
         <v>437</v>
       </c>
       <c r="R43">
-        <f>V18</f>
         <v>188</v>
       </c>
       <c r="S43">
-        <f>V19</f>
         <v>240</v>
       </c>
       <c r="T43">
-        <f>V20</f>
         <v>191</v>
       </c>
       <c r="U43">
-        <f>V21</f>
         <v>491</v>
       </c>
       <c r="V43">
-        <f>V22</f>
         <v>214</v>
       </c>
       <c r="W43">
-        <f>V23</f>
         <v>294</v>
       </c>
       <c r="X43">
-        <f>V24</f>
         <v>146</v>
       </c>
       <c r="Y43">
-        <f>V25</f>
         <v>149</v>
       </c>
       <c r="Z43">
-        <f>V26</f>
         <v>112</v>
       </c>
       <c r="AA43">
-        <f>V27</f>
         <v>209</v>
       </c>
       <c r="AB43">
-        <f>V28</f>
         <v>71</v>
       </c>
       <c r="AC43">
-        <f>V29</f>
         <v>70</v>
       </c>
       <c r="AD43">
-        <f>V30</f>
         <v>96</v>
       </c>
       <c r="AE43">
-        <f>V31</f>
         <v>95</v>
       </c>
       <c r="AF43">
-        <f>V32</f>
         <v>5</v>
       </c>
       <c r="AG43">
-        <f>V33</f>
         <v>29</v>
       </c>
       <c r="AH43">
-        <f>V34</f>
         <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D56121F-F13F-D447-B687-F440D1E1BC12}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView zoomScale="106" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2">
+        <f>83035/10770</f>
+        <v>7.7098421541318478</v>
+      </c>
+      <c r="C2">
+        <f>40526/10770</f>
+        <v>3.7628597957288763</v>
+      </c>
+      <c r="D2">
+        <f>498/10770</f>
+        <v>4.6239554317548746E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3">
+        <f>57101/10612</f>
+        <v>5.3807953260459858</v>
+      </c>
+      <c r="C3">
+        <f>53171/10612</f>
+        <v>5.0104598567659258</v>
+      </c>
+      <c r="D3">
+        <f>393/10612</f>
+        <v>3.7033546928006034E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4">
+        <f>68025/9083</f>
+        <v>7.4892656611251791</v>
+      </c>
+      <c r="C4">
+        <f>51480/9083</f>
+        <v>5.6677309259055377</v>
+      </c>
+      <c r="D4">
+        <f>327/9083</f>
+        <v>3.6001321149399981E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5">
+        <f>69801/10223</f>
+        <v>6.8278391861488803</v>
+      </c>
+      <c r="C5">
+        <f>58768/10223</f>
+        <v>5.7486060843196709</v>
+      </c>
+      <c r="D5">
+        <f>399/10223</f>
+        <v>3.9029639049202779E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6">
+        <f>84623/11414</f>
+        <v>7.41396530576485</v>
+      </c>
+      <c r="C6">
+        <f>52402/11414</f>
+        <v>4.5910285614158051</v>
+      </c>
+      <c r="D6">
+        <f>575/11414</f>
+        <v>5.0376730331172244E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <f>129687/14340</f>
+        <v>9.0437238493723857</v>
+      </c>
+      <c r="C7">
+        <f>48562/14340</f>
+        <v>3.3864714086471408</v>
+      </c>
+      <c r="D7">
+        <f>815/14340</f>
+        <v>5.6834030683403071E-2</v>
       </c>
     </row>
   </sheetData>
